--- a/biology/Botanique/Die_Gartenwelt/Die_Gartenwelt.xlsx
+++ b/biology/Botanique/Die_Gartenwelt/Die_Gartenwelt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Die Gartenwelt[1] est un périodique allemand consacré au jardin fondé par Max Hesdörffer (1863-1920) en 1897 à Berlin et publié par Gustav Schmidt. Cet hebdomadaire est sous-titré comme Illustriertes Wochenblatt für den gesamten Gartenbau (Hebdomadaire illustré pour l'horticulture)[2]. Il a paru indépendamment de 1897 à 1933, année où il a fusionné avec Der Blumen- und Pflanzenbau (1934-1944)[3]. Il traite aussi bien de plantes et de fleurs, que du jardinage paysager, du verger et du potager, des insectes et des animaux utiles ou nuisibles, des nouvelles variétés y compris les plantes exotiques (notamment les orchidées et les palmiers) ou aquatiques, ainsi que la lutte contre les maladies. Il contient aussi une rubrique de questions-réponses.
+Die Gartenwelt est un périodique allemand consacré au jardin fondé par Max Hesdörffer (1863-1920) en 1897 à Berlin et publié par Gustav Schmidt. Cet hebdomadaire est sous-titré comme Illustriertes Wochenblatt für den gesamten Gartenbau (Hebdomadaire illustré pour l'horticulture). Il a paru indépendamment de 1897 à 1933, année où il a fusionné avec Der Blumen- und Pflanzenbau (1934-1944). Il traite aussi bien de plantes et de fleurs, que du jardinage paysager, du verger et du potager, des insectes et des animaux utiles ou nuisibles, des nouvelles variétés y compris les plantes exotiques (notamment les orchidées et les palmiers) ou aquatiques, ainsi que la lutte contre les maladies. Il contient aussi une rubrique de questions-réponses.
 Il est illustré de lithographies d'après des peintures de spécialistes des fleurs par saison, ainsi que de photographies et vignettes en gravure.
 			Illustration d'Adeline Herbst parue en 1898 dans Die Gartenwelt, rose 'Principessa di Napoli' (rose thé de Paul Braüer).
 			Photographie de magnolias (1900).
